--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pros1-Axl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pros1-Axl.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.168014</v>
+        <v>32.935093</v>
       </c>
       <c r="H2">
-        <v>90.504042</v>
+        <v>98.80527900000001</v>
       </c>
       <c r="I2">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="J2">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.203295</v>
+        <v>3.243447333333334</v>
       </c>
       <c r="N2">
-        <v>12.609885</v>
+        <v>9.730342</v>
       </c>
       <c r="O2">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="P2">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="Q2">
-        <v>126.80506240613</v>
+        <v>106.8232395639353</v>
       </c>
       <c r="R2">
-        <v>1141.24556165517</v>
+        <v>961.4091560754182</v>
       </c>
       <c r="S2">
-        <v>0.007117746180616257</v>
+        <v>0.003111683453508391</v>
       </c>
       <c r="T2">
-        <v>0.007117746180616257</v>
+        <v>0.00311168345350839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.168014</v>
+        <v>32.935093</v>
       </c>
       <c r="H3">
-        <v>90.504042</v>
+        <v>98.80527900000001</v>
       </c>
       <c r="I3">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="J3">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>191.513858</v>
       </c>
       <c r="O3">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="P3">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="Q3">
-        <v>1925.864249779338</v>
+        <v>2102.508908006265</v>
       </c>
       <c r="R3">
-        <v>17332.77824801404</v>
+        <v>18922.58017205638</v>
       </c>
       <c r="S3">
-        <v>0.108101464154081</v>
+        <v>0.06124455883011671</v>
       </c>
       <c r="T3">
-        <v>0.1081014641540811</v>
+        <v>0.0612445588301167</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.168014</v>
+        <v>32.935093</v>
       </c>
       <c r="H4">
-        <v>90.504042</v>
+        <v>98.80527900000001</v>
       </c>
       <c r="I4">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="J4">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.211444666666667</v>
+        <v>103.7552793333333</v>
       </c>
       <c r="N4">
-        <v>24.634334</v>
+        <v>311.265838</v>
       </c>
       <c r="O4">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="P4">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="Q4">
-        <v>247.7229776642253</v>
+        <v>3417.189774084311</v>
       </c>
       <c r="R4">
-        <v>2229.506798978028</v>
+        <v>30754.7079667588</v>
       </c>
       <c r="S4">
-        <v>0.01390503852656271</v>
+        <v>0.09954025847673423</v>
       </c>
       <c r="T4">
-        <v>0.01390503852656271</v>
+        <v>0.09954025847673421</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.168014</v>
+        <v>32.935093</v>
       </c>
       <c r="H5">
-        <v>90.504042</v>
+        <v>98.80527900000001</v>
       </c>
       <c r="I5">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="J5">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.53755666666667</v>
+        <v>23.61337433333334</v>
       </c>
       <c r="N5">
-        <v>97.61267000000001</v>
+        <v>70.84012300000001</v>
       </c>
       <c r="O5">
-        <v>0.2345375729390458</v>
+        <v>0.09139594860190291</v>
       </c>
       <c r="P5">
-        <v>0.2345375729390459</v>
+        <v>0.09139594860190289</v>
       </c>
       <c r="Q5">
-        <v>981.5934650457933</v>
+        <v>777.7086797121465</v>
       </c>
       <c r="R5">
-        <v>8834.34118541214</v>
+        <v>6999.378117409318</v>
       </c>
       <c r="S5">
-        <v>0.05509821929956182</v>
+        <v>0.02265408950513756</v>
       </c>
       <c r="T5">
-        <v>0.05509821929956183</v>
+        <v>0.02265408950513755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.168014</v>
+        <v>32.935093</v>
       </c>
       <c r="H6">
-        <v>90.504042</v>
+        <v>98.80527900000001</v>
       </c>
       <c r="I6">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="J6">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.94042966666667</v>
+        <v>63.91341533333334</v>
       </c>
       <c r="N6">
-        <v>89.82128900000001</v>
+        <v>191.740246</v>
       </c>
       <c r="O6">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="P6">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="Q6">
-        <v>903.2433013500154</v>
+        <v>2104.99427795096</v>
       </c>
       <c r="R6">
-        <v>8129.189712150139</v>
+        <v>18944.94850155864</v>
       </c>
       <c r="S6">
-        <v>0.0507003146117335</v>
+        <v>0.0613169558531271</v>
       </c>
       <c r="T6">
-        <v>0.0507003146117335</v>
+        <v>0.06131695585312708</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>197.801769</v>
       </c>
       <c r="I7">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988433</v>
       </c>
       <c r="J7">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988432</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.203295</v>
+        <v>3.243447333333334</v>
       </c>
       <c r="N7">
-        <v>12.609885</v>
+        <v>9.730342</v>
       </c>
       <c r="O7">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="P7">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="Q7">
-        <v>277.1397288762849</v>
+        <v>213.8532067305553</v>
       </c>
       <c r="R7">
-        <v>2494.257559886565</v>
+        <v>1924.678860574998</v>
       </c>
       <c r="S7">
-        <v>0.01555624207169542</v>
+        <v>0.006229388732073605</v>
       </c>
       <c r="T7">
-        <v>0.01555624207169541</v>
+        <v>0.006229388732073604</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>197.801769</v>
       </c>
       <c r="I8">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988433</v>
       </c>
       <c r="J8">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988432</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>191.513858</v>
       </c>
       <c r="O8">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="P8">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="Q8">
         <v>4209.086655601644</v>
@@ -948,10 +948,10 @@
         <v>37881.7799004148</v>
       </c>
       <c r="S8">
-        <v>0.2362619433192533</v>
+        <v>0.1226076400049602</v>
       </c>
       <c r="T8">
-        <v>0.2362619433192533</v>
+        <v>0.1226076400049602</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>197.801769</v>
       </c>
       <c r="I9">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988433</v>
       </c>
       <c r="J9">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988432</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.211444666666667</v>
+        <v>103.7552793333333</v>
       </c>
       <c r="N9">
-        <v>24.634334</v>
+        <v>311.265838</v>
       </c>
       <c r="O9">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="P9">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="Q9">
-        <v>541.4127603707607</v>
+        <v>6840.99259840749</v>
       </c>
       <c r="R9">
-        <v>4872.714843336846</v>
+        <v>61568.93338566741</v>
       </c>
       <c r="S9">
-        <v>0.03039025835517111</v>
+        <v>0.1992731503082469</v>
       </c>
       <c r="T9">
-        <v>0.03039025835517111</v>
+        <v>0.1992731503082469</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>197.801769</v>
       </c>
       <c r="I10">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988433</v>
       </c>
       <c r="J10">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988432</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.53755666666667</v>
+        <v>23.61337433333334</v>
       </c>
       <c r="N10">
-        <v>97.61267000000001</v>
+        <v>70.84012300000001</v>
       </c>
       <c r="O10">
-        <v>0.2345375729390458</v>
+        <v>0.09139594860190291</v>
       </c>
       <c r="P10">
-        <v>0.2345375729390459</v>
+        <v>0.09139594860190289</v>
       </c>
       <c r="Q10">
-        <v>2145.328755868136</v>
+        <v>1556.922405064176</v>
       </c>
       <c r="R10">
-        <v>19307.95880281323</v>
+        <v>14012.30164557759</v>
       </c>
       <c r="S10">
-        <v>0.1204203149976801</v>
+        <v>0.04535201989764679</v>
       </c>
       <c r="T10">
-        <v>0.1204203149976801</v>
+        <v>0.04535201989764678</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>197.801769</v>
       </c>
       <c r="I11">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988433</v>
       </c>
       <c r="J11">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988432</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.94042966666667</v>
+        <v>63.91341533333334</v>
       </c>
       <c r="N11">
-        <v>89.82128900000001</v>
+        <v>191.740246</v>
       </c>
       <c r="O11">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="P11">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="Q11">
-        <v>1974.089984228916</v>
+        <v>4214.06220525502</v>
       </c>
       <c r="R11">
-        <v>17766.80985806024</v>
+        <v>37926.55984729518</v>
       </c>
       <c r="S11">
-        <v>0.110808442335177</v>
+        <v>0.1227525741559157</v>
       </c>
       <c r="T11">
-        <v>0.1108084423351769</v>
+        <v>0.1227525741559157</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.984842</v>
+        <v>13.46314666666667</v>
       </c>
       <c r="H12">
-        <v>29.954526</v>
+        <v>40.38944</v>
       </c>
       <c r="I12">
-        <v>0.07775344005688564</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="J12">
-        <v>0.07775344005688566</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.203295</v>
+        <v>3.243447333333334</v>
       </c>
       <c r="N12">
-        <v>12.609885</v>
+        <v>9.730342</v>
       </c>
       <c r="O12">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="P12">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="Q12">
-        <v>41.96923645439</v>
+        <v>43.66700715427556</v>
       </c>
       <c r="R12">
-        <v>377.72312808951</v>
+        <v>393.00306438848</v>
       </c>
       <c r="S12">
-        <v>0.002355792164825858</v>
+        <v>0.001271988231969568</v>
       </c>
       <c r="T12">
-        <v>0.002355792164825858</v>
+        <v>0.001271988231969568</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.984842</v>
+        <v>13.46314666666667</v>
       </c>
       <c r="H13">
-        <v>29.954526</v>
+        <v>40.38944</v>
       </c>
       <c r="I13">
-        <v>0.07775344005688564</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="J13">
-        <v>0.07775344005688566</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>191.513858</v>
       </c>
       <c r="O13">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="P13">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="Q13">
-        <v>637.4118709801454</v>
+        <v>859.4597196510578</v>
       </c>
       <c r="R13">
-        <v>5736.706838821309</v>
+        <v>7735.13747685952</v>
       </c>
       <c r="S13">
-        <v>0.03577882321147036</v>
+        <v>0.02503543797690677</v>
       </c>
       <c r="T13">
-        <v>0.03577882321147037</v>
+        <v>0.02503543797690677</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.984842</v>
+        <v>13.46314666666667</v>
       </c>
       <c r="H14">
-        <v>29.954526</v>
+        <v>40.38944</v>
       </c>
       <c r="I14">
-        <v>0.07775344005688564</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="J14">
-        <v>0.07775344005688566</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.211444666666667</v>
+        <v>103.7552793333333</v>
       </c>
       <c r="N14">
-        <v>24.634334</v>
+        <v>311.265838</v>
       </c>
       <c r="O14">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="P14">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="Q14">
-        <v>81.98997758840935</v>
+        <v>1396.872543105635</v>
       </c>
       <c r="R14">
-        <v>737.909798295684</v>
+        <v>12571.85288795072</v>
       </c>
       <c r="S14">
-        <v>0.004602212551732488</v>
+        <v>0.04068988355703695</v>
       </c>
       <c r="T14">
-        <v>0.004602212551732489</v>
+        <v>0.04068988355703695</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.984842</v>
+        <v>13.46314666666667</v>
       </c>
       <c r="H15">
-        <v>29.954526</v>
+        <v>40.38944</v>
       </c>
       <c r="I15">
-        <v>0.07775344005688564</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="J15">
-        <v>0.07775344005688566</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>32.53755666666667</v>
+        <v>23.61337433333334</v>
       </c>
       <c r="N15">
-        <v>97.61267000000001</v>
+        <v>70.84012300000001</v>
       </c>
       <c r="O15">
-        <v>0.2345375729390458</v>
+        <v>0.09139594860190291</v>
       </c>
       <c r="P15">
-        <v>0.2345375729390459</v>
+        <v>0.09139594860190289</v>
       </c>
       <c r="Q15">
-        <v>324.8823623827133</v>
+        <v>317.9103219445689</v>
       </c>
       <c r="R15">
-        <v>2923.94126144442</v>
+        <v>2861.19289750112</v>
       </c>
       <c r="S15">
-        <v>0.01823610311860354</v>
+        <v>0.009260496990473384</v>
       </c>
       <c r="T15">
-        <v>0.01823610311860355</v>
+        <v>0.009260496990473382</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.984842</v>
+        <v>13.46314666666667</v>
       </c>
       <c r="H16">
-        <v>29.954526</v>
+        <v>40.38944</v>
       </c>
       <c r="I16">
-        <v>0.07775344005688564</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="J16">
-        <v>0.07775344005688566</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.94042966666667</v>
+        <v>63.91341533333334</v>
       </c>
       <c r="N16">
-        <v>89.82128900000001</v>
+        <v>191.740246</v>
       </c>
       <c r="O16">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="P16">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="Q16">
-        <v>298.9504596337794</v>
+        <v>860.475684600249</v>
       </c>
       <c r="R16">
-        <v>2690.554136704014</v>
+        <v>7744.28116140224</v>
       </c>
       <c r="S16">
-        <v>0.01678050901025339</v>
+        <v>0.02506503229865406</v>
       </c>
       <c r="T16">
-        <v>0.01678050901025339</v>
+        <v>0.02506503229865405</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.100318666666666</v>
+        <v>6.098311666666667</v>
       </c>
       <c r="H17">
-        <v>18.300956</v>
+        <v>18.294935</v>
       </c>
       <c r="I17">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="J17">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.203295</v>
+        <v>3.243447333333334</v>
       </c>
       <c r="N17">
-        <v>12.609885</v>
+        <v>9.730342</v>
       </c>
       <c r="O17">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="P17">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="Q17">
-        <v>25.64143895000667</v>
+        <v>19.77955271308556</v>
       </c>
       <c r="R17">
-        <v>230.77295055006</v>
+        <v>178.01597441777</v>
       </c>
       <c r="S17">
-        <v>0.001439289967520193</v>
+        <v>0.0005761640177394928</v>
       </c>
       <c r="T17">
-        <v>0.001439289967520193</v>
+        <v>0.0005761640177394927</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.100318666666666</v>
+        <v>6.098311666666667</v>
       </c>
       <c r="H18">
-        <v>18.300956</v>
+        <v>18.294935</v>
       </c>
       <c r="I18">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="J18">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>191.513858</v>
       </c>
       <c r="O18">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="P18">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="Q18">
-        <v>389.4318542942498</v>
+        <v>389.3037315232478</v>
       </c>
       <c r="R18">
-        <v>3504.886688648248</v>
+        <v>3503.733583709231</v>
       </c>
       <c r="S18">
-        <v>0.02185935672375179</v>
+        <v>0.01134013520573796</v>
       </c>
       <c r="T18">
-        <v>0.02185935672375179</v>
+        <v>0.01134013520573796</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.100318666666666</v>
+        <v>6.098311666666667</v>
       </c>
       <c r="H19">
-        <v>18.300956</v>
+        <v>18.294935</v>
       </c>
       <c r="I19">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="J19">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.211444666666667</v>
+        <v>103.7552793333333</v>
       </c>
       <c r="N19">
-        <v>24.634334</v>
+        <v>311.265838</v>
       </c>
       <c r="O19">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="P19">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="Q19">
-        <v>50.09242918036711</v>
+        <v>632.7320304367256</v>
       </c>
       <c r="R19">
-        <v>450.8318626233039</v>
+        <v>5694.588273930531</v>
       </c>
       <c r="S19">
-        <v>0.002811758377078108</v>
+        <v>0.01843102491229291</v>
       </c>
       <c r="T19">
-        <v>0.002811758377078108</v>
+        <v>0.01843102491229291</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.100318666666666</v>
+        <v>6.098311666666667</v>
       </c>
       <c r="H20">
-        <v>18.300956</v>
+        <v>18.294935</v>
       </c>
       <c r="I20">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="J20">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>32.53755666666667</v>
+        <v>23.61337433333334</v>
       </c>
       <c r="N20">
-        <v>97.61267000000001</v>
+        <v>70.84012300000001</v>
       </c>
       <c r="O20">
-        <v>0.2345375729390458</v>
+        <v>0.09139594860190291</v>
       </c>
       <c r="P20">
-        <v>0.2345375729390459</v>
+        <v>0.09139594860190289</v>
       </c>
       <c r="Q20">
-        <v>198.4894643013911</v>
+        <v>144.0017161863339</v>
       </c>
       <c r="R20">
-        <v>1786.40517871252</v>
+        <v>1296.015445677005</v>
       </c>
       <c r="S20">
-        <v>0.01114149230019618</v>
+        <v>0.004194665499407919</v>
       </c>
       <c r="T20">
-        <v>0.01114149230019618</v>
+        <v>0.004194665499407919</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.100318666666666</v>
+        <v>6.098311666666667</v>
       </c>
       <c r="H21">
-        <v>18.300956</v>
+        <v>18.294935</v>
       </c>
       <c r="I21">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="J21">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.94042966666667</v>
+        <v>63.91341533333334</v>
       </c>
       <c r="N21">
-        <v>89.82128900000001</v>
+        <v>191.740246</v>
       </c>
       <c r="O21">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="P21">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="Q21">
-        <v>182.6461619835871</v>
+        <v>389.763926383779</v>
       </c>
       <c r="R21">
-        <v>1643.815457852284</v>
+        <v>3507.875337454011</v>
       </c>
       <c r="S21">
-        <v>0.01025218549791944</v>
+        <v>0.01135354034809041</v>
       </c>
       <c r="T21">
-        <v>0.01025218549791944</v>
+        <v>0.01135354034809041</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.22962566666667</v>
+        <v>14.44328633333333</v>
       </c>
       <c r="H22">
-        <v>48.68887700000001</v>
+        <v>43.329859</v>
       </c>
       <c r="I22">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442235</v>
       </c>
       <c r="J22">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442234</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.203295</v>
+        <v>3.243447333333334</v>
       </c>
       <c r="N22">
-        <v>12.609885</v>
+        <v>9.730342</v>
       </c>
       <c r="O22">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="P22">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="Q22">
-        <v>68.21790441657167</v>
+        <v>46.84603854241978</v>
       </c>
       <c r="R22">
-        <v>613.961139749145</v>
+        <v>421.614346881778</v>
       </c>
       <c r="S22">
-        <v>0.003829166749317613</v>
+        <v>0.001364591109480614</v>
       </c>
       <c r="T22">
-        <v>0.003829166749317613</v>
+        <v>0.001364591109480614</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.22962566666667</v>
+        <v>14.44328633333333</v>
       </c>
       <c r="H23">
-        <v>48.68887700000001</v>
+        <v>43.329859</v>
       </c>
       <c r="I23">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442235</v>
       </c>
       <c r="J23">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442234</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>191.513858</v>
       </c>
       <c r="O23">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="P23">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="Q23">
-        <v>1036.066075106385</v>
+        <v>922.0298292984469</v>
       </c>
       <c r="R23">
-        <v>9324.594675957469</v>
+        <v>8298.268463686021</v>
       </c>
       <c r="S23">
-        <v>0.05815584337899474</v>
+        <v>0.02685805986769353</v>
       </c>
       <c r="T23">
-        <v>0.05815584337899475</v>
+        <v>0.02685805986769352</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.22962566666667</v>
+        <v>14.44328633333333</v>
       </c>
       <c r="H24">
-        <v>48.68887700000001</v>
+        <v>43.329859</v>
       </c>
       <c r="I24">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442235</v>
       </c>
       <c r="J24">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442234</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.211444666666667</v>
+        <v>103.7552793333333</v>
       </c>
       <c r="N24">
-        <v>24.634334</v>
+        <v>311.265838</v>
       </c>
       <c r="O24">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="P24">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="Q24">
-        <v>133.2686731225465</v>
+        <v>1498.567208006315</v>
       </c>
       <c r="R24">
-        <v>1199.418058102918</v>
+        <v>13487.10487205684</v>
       </c>
       <c r="S24">
-        <v>0.007480557724704417</v>
+        <v>0.04365217535209277</v>
       </c>
       <c r="T24">
-        <v>0.007480557724704419</v>
+        <v>0.04365217535209275</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.22962566666667</v>
+        <v>14.44328633333333</v>
       </c>
       <c r="H25">
-        <v>48.68887700000001</v>
+        <v>43.329859</v>
       </c>
       <c r="I25">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442235</v>
       </c>
       <c r="J25">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442234</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>32.53755666666667</v>
+        <v>23.61337433333334</v>
       </c>
       <c r="N25">
-        <v>97.61267000000001</v>
+        <v>70.84012300000001</v>
       </c>
       <c r="O25">
-        <v>0.2345375729390458</v>
+        <v>0.09139594860190291</v>
       </c>
       <c r="P25">
-        <v>0.2345375729390459</v>
+        <v>0.09139594860190289</v>
       </c>
       <c r="Q25">
-        <v>528.0723648079545</v>
+        <v>341.0547267925175</v>
       </c>
       <c r="R25">
-        <v>4752.651283271591</v>
+        <v>3069.492541132657</v>
       </c>
       <c r="S25">
-        <v>0.02964144322300425</v>
+        <v>0.009934676709237268</v>
       </c>
       <c r="T25">
-        <v>0.02964144322300426</v>
+        <v>0.009934676709237264</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>16.22962566666667</v>
+        <v>14.44328633333333</v>
       </c>
       <c r="H26">
-        <v>48.68887700000001</v>
+        <v>43.329859</v>
       </c>
       <c r="I26">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442235</v>
       </c>
       <c r="J26">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442234</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>29.94042966666667</v>
+        <v>63.91341533333334</v>
       </c>
       <c r="N26">
-        <v>89.82128900000001</v>
+        <v>191.740246</v>
       </c>
       <c r="O26">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="P26">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="Q26">
-        <v>485.9219657891615</v>
+        <v>923.1197582005905</v>
       </c>
       <c r="R26">
-        <v>4373.297692102454</v>
+        <v>8308.077823805314</v>
       </c>
       <c r="S26">
-        <v>0.02727548214909557</v>
+        <v>0.02688980870571928</v>
       </c>
       <c r="T26">
-        <v>0.02727548214909557</v>
+        <v>0.02688980870571927</v>
       </c>
     </row>
   </sheetData>
